--- a/data/测试接口.xlsx
+++ b/data/测试接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9915"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>case_id</t>
   </si>
@@ -45,47 +45,52 @@
     <t>001</t>
   </si>
   <si>
-    <t>新增签到发布会接口</t>
+    <t>Control-Tower-登录</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/add_event/</t>
+    <t>/authentication/signIn</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json"}</t>
   </si>
   <si>
     <t>{
- "eid":6,
- "name":"测试发布会系统001",
- "limit":5,
- "status":0,
- "address":"四川省乐山市",
- "strart_time":"2020-10-01 12:00:00"
+  "clientId": "client",
+  "password": "Mima123!",
+  "redirectUrl": "string",
+  "route": "string",
+  "username": "MLB2-TEST01"
 }</t>
   </si>
   <si>
-    <t>{"test1":"$..eid","test2":"$..status"}</t>
+    <t>{"verificationCode":"$..verificationCode"}</t>
   </si>
   <si>
     <t>002</t>
   </si>
   <si>
-    <t>查询签到发布会接口</t>
+    <t>Control-Tower-获取token</t>
   </si>
   <si>
     <t>GET</t>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/get_event_list/</t>
-  </si>
-  <si>
-    <t>{"eid":"1"}</t>
-  </si>
-  <si>
-    <t>{"eid":"$..eid","test2":"$..status"}</t>
-  </si>
-  <si>
-    <t>{"a":${eid}}</t>
+    <t>/authentication/getToken/${verificationCode}</t>
+  </si>
+  <si>
+    <t>{
+  "clientId": "client",
+  "password": ,
+  "redirectUrl": "string",
+  "route": "string",
+  "username": "MLB2-TEST03"
+}</t>
+  </si>
+  <si>
+    <t>{"token":"$..data"}</t>
   </si>
 </sst>
 </file>
@@ -98,7 +103,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,7 +114,135 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,127 +262,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -260,6 +272,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -272,37 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,133 +398,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,48 +463,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,16 +493,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +530,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,147 +583,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1062,17 +1077,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="55.625" customWidth="1"/>
     <col min="5" max="5" width="18.625" customWidth="1"/>
     <col min="6" max="6" width="23.75" customWidth="1"/>
     <col min="7" max="7" width="17.375" customWidth="1"/>
@@ -1105,56 +1120,53 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="148.5" spans="1:7">
+    <row r="2" ht="135" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="121.5" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
         <v>15</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="6:6">
-      <c r="F4" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://127.0.0.1:8000/add_event/" tooltip="http://127.0.0.1:8000/add_event/"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://127.0.0.1:8000/get_event_list/" tooltip="http://127.0.0.1:8000/get_event_list/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data/测试接口.xlsx
+++ b/data/测试接口.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>case_id</t>
   </si>
@@ -45,7 +45,7 @@
     <t>001</t>
   </si>
   <si>
-    <t>Control-Tower-登录</t>
+    <t>动态库存-登录</t>
   </si>
   <si>
     <t>POST</t>
@@ -59,20 +59,20 @@
   <si>
     <t>{
   "clientId": "client",
-  "password": "Mima123!",
+  "password": "MLB2test!",
   "redirectUrl": "string",
   "route": "string",
-  "username": "MLB2-TEST01"
+  "username": "MLB2-SIT"
 }</t>
   </si>
   <si>
-    <t>{"verificationCode":"$..verificationCode"}</t>
+    <t>{"verificationCode":$..verificationCode}</t>
   </si>
   <si>
     <t>002</t>
   </si>
   <si>
-    <t>Control-Tower-获取token</t>
+    <t>动态库存-获取token</t>
   </si>
   <si>
     <t>GET</t>
@@ -81,16 +81,7 @@
     <t>/authentication/getToken/${verificationCode}</t>
   </si>
   <si>
-    <t>{
-  "clientId": "client",
-  "password": ,
-  "redirectUrl": "string",
-  "route": "string",
-  "username": "MLB2-TEST03"
-}</t>
-  </si>
-  <si>
-    <t>{"token":"$..data"}</t>
+    <t>{"token":$..data}</t>
   </si>
 </sst>
 </file>
@@ -98,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -126,9 +117,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,62 +148,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,7 +178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,29 +186,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,6 +199,60 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -272,43 +263,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,139 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,26 +459,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,9 +492,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,39 +554,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,137 +574,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +715,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1080,7 +1074,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1088,7 +1082,7 @@
     <col min="1" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="55.625" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="34.125" customWidth="1"/>
     <col min="6" max="6" width="23.75" customWidth="1"/>
     <col min="7" max="7" width="17.375" customWidth="1"/>
     <col min="8" max="8" width="31.625" customWidth="1"/>
@@ -1133,17 +1127,17 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="121.5" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1156,14 +1150,12 @@
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/测试接口.xlsx
+++ b/data/测试接口.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="登录" sheetId="1" r:id="rId1"/>
+    <sheet name="动态库存" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>case_id</t>
   </si>
@@ -59,14 +59,17 @@
   <si>
     <t>{
   "clientId": "client",
-  "password": "MLB2test!",
+  "password": "Mima123!",
   "redirectUrl": "string",
   "route": "string",
-  "username": "MLB2-SIT"
+  "username": "MLB2-TEST01"
 }</t>
   </si>
   <si>
-    <t>{"verificationCode":$..verificationCode}</t>
+    <t>{"verificationCode":"$..verificationCode"}</t>
+  </si>
+  <si>
+    <t>[["=","$..",""],[]]</t>
   </si>
   <si>
     <t>002</t>
@@ -81,7 +84,42 @@
     <t>/authentication/getToken/${verificationCode}</t>
   </si>
   <si>
-    <t>{"token":$..data}</t>
+    <t>{
+  "clientId": "client",
+  "password": "Mima123!",
+  "redirectUrl": "string",
+  "route": "string",
+  "username": "MLB2-TEST03"
+}</t>
+  </si>
+  <si>
+    <t>{"token":"$..data"}</t>
+  </si>
+  <si>
+    <t>动态库存-库存列表</t>
+  </si>
+  <si>
+    <t>/inventory/paging-search-inventories</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json","Authorization":"${token}","clientId":"client"}</t>
+  </si>
+  <si>
+    <t>{
+ "advancedQueryCriteria": {
+ }, 
+ "pagingCondition": {
+  "pageIndex": 1,
+  "pageSize": 10
+ },
+ "sortCondition": {
+  "ascending": True,
+  "propertyName": "mgtMode"
+ }
+}</t>
+  </si>
+  <si>
+    <t>{"part_id":"$..id"}</t>
   </si>
 </sst>
 </file>
@@ -89,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -110,6 +148,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -118,6 +180,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -125,7 +194,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,11 +239,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,23 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,28 +264,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -215,30 +278,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -246,9 +285,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,49 +301,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,133 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,15 +500,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,16 +531,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +560,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -540,17 +584,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,137 +612,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,9 +753,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1073,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1114,7 +1149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="135" spans="1:7">
+    <row r="2" ht="135" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,35 +1162,40 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="135" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1168,14 +1208,85 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="55.625" customWidth="1"/>
+    <col min="5" max="5" width="34.125" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="31.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="243" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data/测试接口.xlsx
+++ b/data/测试接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>case_id</t>
   </si>
@@ -69,7 +69,7 @@
     <t>{"verificationCode":"$..verificationCode"}</t>
   </si>
   <si>
-    <t>[["=","$..",""],[]]</t>
+    <t>[['Equal','${verificationCode}','$..verificationCode'],['Equal',"True",'$..success']]</t>
   </si>
   <si>
     <t>002</t>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>{"token":"$..data"}</t>
+  </si>
+  <si>
+    <t>[['Equal',"True",'$..success']]</t>
   </si>
   <si>
     <t>动态库存-库存列表</t>
@@ -119,7 +122,23 @@
 }</t>
   </si>
   <si>
-    <t>{"part_id":"$..id"}</t>
+    <t>{"part_id":"$..id","partNo":"$..partNo"}</t>
+  </si>
+  <si>
+    <t>[["Equal","True","$..success"]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "keyword":"${partNo}",
+ "pagingCondition": {
+  "pageIndex": 1,
+  "pageSize": 10
+ }
+}
+</t>
+  </si>
+  <si>
+    <t>[["Equal","True","$..success"],["Equal","${partNo}","$..partNo"]]</t>
   </si>
 </sst>
 </file>
@@ -127,8 +146,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -148,9 +167,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +189,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -172,53 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,9 +258,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,24 +289,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,13 +306,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +524,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -515,17 +549,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,17 +583,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1175,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="135" spans="1:7">
+    <row r="3" ht="135" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1196,6 +1215,9 @@
       </c>
       <c r="G3" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1210,18 +1232,19 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="55.625" customWidth="1"/>
-    <col min="5" max="5" width="34.125" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="48.875" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="30.875" customWidth="1"/>
     <col min="8" max="8" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1251,40 +1274,55 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="243" spans="1:8">
+    <row r="2" ht="202.5" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="2"/>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/测试接口.xlsx
+++ b/data/测试接口.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
     <sheet name="动态库存" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>case_id</t>
   </si>
@@ -140,14 +139,20 @@
   <si>
     <t>[["Equal","True","$..success"],["Equal","${partNo}","$..partNo"]]</t>
   </si>
+  <si>
+    <t>首页-获取库存预警地图</t>
+  </si>
+  <si>
+    <t>/home-page/warning-map</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -167,6 +172,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -175,7 +241,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,31 +293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,91 +303,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,19 +325,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,13 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,19 +451,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,121 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,11 +519,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,32 +591,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,35 +616,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1133,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1230,13 +1235,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
@@ -1324,26 +1329,29 @@
         <v>30</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>